--- a/AK400G2单扇双扇.xlsx
+++ b/AK400G2单扇双扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5350A1D8-FA6D-F14B-8842-2DC86F60BE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840982A7-3DA6-1B4E-8EF2-A24AC26E41DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="600" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -402,78 +402,78 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>82.6</v>
+      </c>
+      <c r="C2">
+        <v>2343</v>
+      </c>
+      <c r="D2">
         <v>45.8</v>
       </c>
-      <c r="B2">
+      <c r="E2">
         <v>82.2</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>2385</v>
-      </c>
-      <c r="D2">
-        <v>42</v>
-      </c>
-      <c r="E2">
-        <v>82.6</v>
-      </c>
-      <c r="F2">
-        <v>2343</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>83.2</v>
+      </c>
+      <c r="C3">
+        <v>2183</v>
+      </c>
+      <c r="D3">
         <v>43.1</v>
       </c>
-      <c r="B3">
+      <c r="E3">
         <v>82.6</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>2156</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>83.2</v>
-      </c>
-      <c r="F3">
-        <v>2183</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="D4">
         <v>40</v>
       </c>
-      <c r="B4">
+      <c r="E4">
         <v>83.1</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>1948</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AK400G2单扇双扇.xlsx
+++ b/AK400G2单扇双扇.xlsx
@@ -8,30 +8,64 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840982A7-3DA6-1B4E-8EF2-A24AC26E41DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7784C28B-EB87-3A47-8C1F-459FA81F9848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="600" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>单莫比乌斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>双莫比乌斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单LP12E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双LP12E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单FD12V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双FD12V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单莫比乌斯_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双莫比乌斯_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +452,38 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>42</v>
       </c>
@@ -438,8 +502,64 @@
       <c r="F2">
         <v>2385</v>
       </c>
+      <c r="G2">
+        <v>52.3</v>
+      </c>
+      <c r="H2">
+        <v>54.1</v>
+      </c>
+      <c r="I2">
+        <v>3015</v>
+      </c>
+      <c r="J2">
+        <v>55.5</v>
+      </c>
+      <c r="K2">
+        <v>53.9</v>
+      </c>
+      <c r="L2">
+        <v>3000</v>
+      </c>
+      <c r="M2">
+        <v>42.8</v>
+      </c>
+      <c r="N2">
+        <f>76.9-21.8</f>
+        <v>55.100000000000009</v>
+      </c>
+      <c r="O2">
+        <v>2500</v>
+      </c>
+      <c r="P2">
+        <v>45.2</v>
+      </c>
+      <c r="Q2">
+        <f>76.3-21.8</f>
+        <v>54.5</v>
+      </c>
+      <c r="R2">
+        <v>2500</v>
+      </c>
+      <c r="S2">
+        <v>41.4</v>
+      </c>
+      <c r="T2">
+        <v>55.5</v>
+      </c>
+      <c r="U2">
+        <v>2371</v>
+      </c>
+      <c r="V2">
+        <v>45.56</v>
+      </c>
+      <c r="W2">
+        <v>55.1</v>
+      </c>
+      <c r="X2">
+        <v>2385</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>40</v>
       </c>
@@ -458,8 +578,64 @@
       <c r="F3">
         <v>2156</v>
       </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>55.2</v>
+      </c>
+      <c r="I3">
+        <v>2396</v>
+      </c>
+      <c r="J3">
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <v>55</v>
+      </c>
+      <c r="L3">
+        <v>2222</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <f>77.6-21.8</f>
+        <v>55.8</v>
+      </c>
+      <c r="O3">
+        <v>2228</v>
+      </c>
+      <c r="P3">
+        <v>40</v>
+      </c>
+      <c r="Q3">
+        <f>77.1-21.8</f>
+        <v>55.3</v>
+      </c>
+      <c r="R3">
+        <v>2040</v>
+      </c>
+      <c r="S3">
+        <v>39</v>
+      </c>
+      <c r="T3">
+        <v>56.1</v>
+      </c>
+      <c r="U3">
+        <v>2183</v>
+      </c>
+      <c r="V3">
+        <v>42.64</v>
+      </c>
+      <c r="W3">
+        <v>55.5</v>
+      </c>
+      <c r="X3">
+        <v>2156</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:24">
       <c r="D4">
         <v>40</v>
       </c>
@@ -469,13 +645,47 @@
       <c r="F4">
         <v>1948</v>
       </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>56.8</v>
+      </c>
+      <c r="I4">
+        <v>1900</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>56.4</v>
+      </c>
+      <c r="L4">
+        <v>1772</v>
+      </c>
+      <c r="V4">
+        <v>39</v>
+      </c>
+      <c r="W4">
+        <v>56</v>
+      </c>
+      <c r="X4">
+        <v>1948</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/AK400G2单扇双扇.xlsx
+++ b/AK400G2单扇双扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7784C28B-EB87-3A47-8C1F-459FA81F9848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3C1227-45C0-0B48-B170-776B878146C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="600" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -35,15 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>单莫比乌斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双莫比乌斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>单LP12E</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +58,50 @@
   </si>
   <si>
     <t>双莫比乌斯_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单9RA12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双9RA12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A120_11月初版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK12V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABF1212HH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿华12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACH120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9 R120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,207 +518,432 @@
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:51">
       <c r="A2">
-        <v>42</v>
+        <v>52.3</v>
       </c>
       <c r="B2">
-        <v>82.6</v>
+        <v>54.1</v>
       </c>
       <c r="C2">
-        <v>2343</v>
+        <v>3015</v>
       </c>
       <c r="D2">
-        <v>45.8</v>
+        <v>55.5</v>
       </c>
       <c r="E2">
-        <v>82.2</v>
+        <v>53.9</v>
       </c>
       <c r="F2">
-        <v>2385</v>
+        <v>3000</v>
       </c>
       <c r="G2">
-        <v>52.3</v>
+        <v>42.8</v>
       </c>
       <c r="H2">
-        <v>54.1</v>
-      </c>
-      <c r="I2">
-        <v>3015</v>
-      </c>
-      <c r="J2">
-        <v>55.5</v>
-      </c>
-      <c r="K2">
-        <v>53.9</v>
-      </c>
-      <c r="L2">
-        <v>3000</v>
-      </c>
-      <c r="M2">
-        <v>42.8</v>
-      </c>
-      <c r="N2">
         <f>76.9-21.8</f>
         <v>55.100000000000009</v>
       </c>
-      <c r="O2">
+      <c r="I2">
         <v>2500</v>
       </c>
-      <c r="P2">
+      <c r="J2">
         <v>45.2</v>
       </c>
-      <c r="Q2">
+      <c r="K2">
         <f>76.3-21.8</f>
         <v>54.5</v>
       </c>
+      <c r="L2">
+        <v>2500</v>
+      </c>
+      <c r="M2">
+        <v>41.4</v>
+      </c>
+      <c r="N2">
+        <v>55.5</v>
+      </c>
+      <c r="O2">
+        <v>2371</v>
+      </c>
+      <c r="P2">
+        <v>45.56</v>
+      </c>
+      <c r="Q2">
+        <v>55.1</v>
+      </c>
       <c r="R2">
-        <v>2500</v>
+        <v>2385</v>
       </c>
       <c r="S2">
-        <v>41.4</v>
+        <v>55.5</v>
       </c>
       <c r="T2">
-        <v>55.5</v>
+        <v>53.5</v>
       </c>
       <c r="U2">
-        <v>2371</v>
+        <v>4133</v>
       </c>
       <c r="V2">
-        <v>45.56</v>
+        <v>59.2</v>
       </c>
       <c r="W2">
+        <v>52.9</v>
+      </c>
+      <c r="X2">
+        <v>4230</v>
+      </c>
+      <c r="Y2">
+        <v>44.3</v>
+      </c>
+      <c r="Z2">
         <v>55.1</v>
       </c>
-      <c r="X2">
-        <v>2385</v>
+      <c r="AA2">
+        <v>1990</v>
+      </c>
+      <c r="AB2">
+        <v>45</v>
+      </c>
+      <c r="AC2">
+        <v>54.3</v>
+      </c>
+      <c r="AD2">
+        <v>2550</v>
+      </c>
+      <c r="AE2">
+        <v>44</v>
+      </c>
+      <c r="AF2">
+        <v>54.6</v>
+      </c>
+      <c r="AG2">
+        <v>2708</v>
+      </c>
+      <c r="AH2">
+        <v>49.6</v>
+      </c>
+      <c r="AI2">
+        <v>54.6</v>
+      </c>
+      <c r="AJ2">
+        <v>2813</v>
+      </c>
+      <c r="AK2">
+        <v>46</v>
+      </c>
+      <c r="AL2">
+        <v>54.1</v>
+      </c>
+      <c r="AM2">
+        <v>2594</v>
+      </c>
+      <c r="AN2">
+        <v>41.8</v>
+      </c>
+      <c r="AO2">
+        <v>55.1</v>
+      </c>
+      <c r="AP2">
+        <v>2280</v>
+      </c>
+      <c r="AQ2">
+        <v>50.8</v>
+      </c>
+      <c r="AR2">
+        <v>53.7</v>
+      </c>
+      <c r="AS2">
+        <v>3022</v>
+      </c>
+      <c r="AT2">
+        <v>52.2</v>
+      </c>
+      <c r="AU2">
+        <v>54</v>
+      </c>
+      <c r="AV2">
+        <v>3053</v>
+      </c>
+      <c r="AW2">
+        <v>55</v>
+      </c>
+      <c r="AX2">
+        <v>53.2</v>
+      </c>
+      <c r="AY2">
+        <v>2996</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:51">
       <c r="A3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>83.2</v>
+        <v>55.2</v>
       </c>
       <c r="C3">
-        <v>2183</v>
+        <v>2396</v>
       </c>
       <c r="D3">
-        <v>43.1</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>82.6</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>2156</v>
+        <v>2222</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>55.2</v>
-      </c>
-      <c r="I3">
-        <v>2396</v>
-      </c>
-      <c r="J3">
-        <v>46</v>
-      </c>
-      <c r="K3">
-        <v>55</v>
-      </c>
-      <c r="L3">
-        <v>2222</v>
-      </c>
-      <c r="M3">
-        <v>40</v>
-      </c>
-      <c r="N3">
         <f>77.6-21.8</f>
         <v>55.8</v>
       </c>
-      <c r="O3">
+      <c r="I3">
         <v>2228</v>
       </c>
-      <c r="P3">
-        <v>40</v>
-      </c>
-      <c r="Q3">
+      <c r="J3">
+        <v>40</v>
+      </c>
+      <c r="K3">
         <f>77.1-21.8</f>
         <v>55.3</v>
       </c>
+      <c r="L3">
+        <v>2040</v>
+      </c>
+      <c r="M3">
+        <v>39</v>
+      </c>
+      <c r="N3">
+        <v>56.1</v>
+      </c>
+      <c r="O3">
+        <v>2183</v>
+      </c>
+      <c r="P3">
+        <v>42.64</v>
+      </c>
+      <c r="Q3">
+        <v>55.5</v>
+      </c>
       <c r="R3">
-        <v>2040</v>
+        <v>2156</v>
       </c>
       <c r="S3">
+        <v>47</v>
+      </c>
+      <c r="T3">
+        <v>55.3</v>
+      </c>
+      <c r="U3">
+        <v>3000</v>
+      </c>
+      <c r="V3">
+        <v>50.1</v>
+      </c>
+      <c r="W3">
+        <v>54.2</v>
+      </c>
+      <c r="X3">
+        <v>3022</v>
+      </c>
+      <c r="Y3">
+        <v>40</v>
+      </c>
+      <c r="Z3">
+        <v>56.7</v>
+      </c>
+      <c r="AA3">
+        <v>1666</v>
+      </c>
+      <c r="AB3">
+        <v>40</v>
+      </c>
+      <c r="AC3">
+        <v>56.1</v>
+      </c>
+      <c r="AD3">
+        <v>2092</v>
+      </c>
+      <c r="AE3">
+        <v>40</v>
+      </c>
+      <c r="AF3">
+        <v>55.9</v>
+      </c>
+      <c r="AG3">
+        <v>2270</v>
+      </c>
+      <c r="AH3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AI3">
+        <v>57.1</v>
+      </c>
+      <c r="AJ3">
+        <v>1941</v>
+      </c>
+      <c r="AK3">
+        <v>40</v>
+      </c>
+      <c r="AL3">
+        <v>55.8</v>
+      </c>
+      <c r="AM3">
+        <v>2042</v>
+      </c>
+      <c r="AN3">
+        <v>40.1</v>
+      </c>
+      <c r="AO3">
+        <v>55.7</v>
+      </c>
+      <c r="AP3">
+        <v>2110</v>
+      </c>
+      <c r="AQ3">
+        <v>40</v>
+      </c>
+      <c r="AR3">
+        <v>56.5</v>
+      </c>
+      <c r="AS3">
+        <v>1893</v>
+      </c>
+      <c r="AT3">
+        <v>40</v>
+      </c>
+      <c r="AU3">
+        <v>56.8</v>
+      </c>
+      <c r="AV3">
+        <v>1905</v>
+      </c>
+      <c r="AW3">
+        <v>40</v>
+      </c>
+      <c r="AX3">
+        <v>56.7</v>
+      </c>
+      <c r="AY3">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>56.8</v>
+      </c>
+      <c r="C4">
+        <v>1900</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>56.4</v>
+      </c>
+      <c r="F4">
+        <v>1772</v>
+      </c>
+      <c r="P4">
         <v>39</v>
       </c>
-      <c r="T3">
-        <v>56.1</v>
-      </c>
-      <c r="U3">
-        <v>2183</v>
-      </c>
-      <c r="V3">
-        <v>42.64</v>
-      </c>
-      <c r="W3">
-        <v>55.5</v>
-      </c>
-      <c r="X3">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>83.1</v>
-      </c>
-      <c r="F4">
+      <c r="Q4">
+        <v>56</v>
+      </c>
+      <c r="R4">
         <v>1948</v>
       </c>
-      <c r="G4">
-        <v>40</v>
-      </c>
-      <c r="H4">
-        <v>56.8</v>
-      </c>
-      <c r="I4">
-        <v>1900</v>
-      </c>
-      <c r="J4">
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <v>56.4</v>
-      </c>
-      <c r="L4">
-        <v>1772</v>
+      <c r="S4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="T4">
+        <v>57</v>
+      </c>
+      <c r="U4">
+        <v>2290</v>
       </c>
       <c r="V4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W4">
-        <v>56</v>
+        <v>56.5</v>
       </c>
       <c r="X4">
-        <v>1948</v>
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="17">
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AK400G2单扇双扇.xlsx
+++ b/AK400G2单扇双扇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3C1227-45C0-0B48-B170-776B878146C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E57E5EF-8D04-A348-B56D-4A891ACBE26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="600" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
+    <workbookView xWindow="2620" yWindow="2240" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,34 +37,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>单LP12E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双LP12E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单FD12V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双FD12V2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单莫比乌斯_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双莫比乌斯_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单9RA12025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双9RA12025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +86,22 @@
   </si>
   <si>
     <t>F9 R120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP12E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD12V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫比乌斯_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9RA12025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,95 +471,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
@@ -761,13 +761,13 @@
         <v>2040</v>
       </c>
       <c r="M3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3">
-        <v>56.1</v>
+        <v>55.85</v>
       </c>
       <c r="O3">
-        <v>2183</v>
+        <v>2261</v>
       </c>
       <c r="P3">
         <v>42.64</v>
@@ -927,6 +927,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="AT1:AV1"/>
@@ -936,14 +944,6 @@
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
